--- a/src/test/resources/dataDriven/Main.xlsx
+++ b/src/test/resources/dataDriven/Main.xlsx
@@ -44,7 +44,7 @@
     <t>cantidad</t>
   </si>
   <si>
-    <t>pruebas32Cho@yaoo.com</t>
+    <t>pruas32Cho@yaoo.com</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
